--- a/biology/Botanique/Cephalanthera_caucasica/Cephalanthera_caucasica.xlsx
+++ b/biology/Botanique/Cephalanthera_caucasica/Cephalanthera_caucasica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalanthera caucasica est une espèce de plantes à fleurs de la famille des Orchidaceae et du genre Cephalanthera, originaire du Caucase.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier par Karl Friedrich von Ledebour en 1852, qui la classe dans le genre Cephalanthera sous le nom binominal Cephalanthera acuminata. Fritz Kränzlin décrit en 1931 une nouvelle espèce, sous le basionyme Cephalanthera caucasica. Hans Sundermann la considère en 1980 comme une sous-espèce de Cephalanthera damasonium, mais le nom correct est Cephalanthera caucasica[2].
-Cette espèce est parente, avec Cephalanthera longifolia, de l'hybride Cephalanthera ×renzii décrite en 2003[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par Karl Friedrich von Ledebour en 1852, qui la classe dans le genre Cephalanthera sous le nom binominal Cephalanthera acuminata. Fritz Kränzlin décrit en 1931 une nouvelle espèce, sous le basionyme Cephalanthera caucasica. Hans Sundermann la considère en 1980 comme une sous-espèce de Cephalanthera damasonium, mais le nom correct est Cephalanthera caucasica.
+Cette espèce est parente, avec Cephalanthera longifolia, de l'hybride Cephalanthera ×renzii décrite en 2003.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se distingue par une tige densément feuillue avec 7 à 9 larges feuilles, de couleur vert foncé, pouvant atteindre 16 cm de long, souvent repliées ou courbées vers l'extérieur. L'inflorescence est dense et congestionnée, avec de grandes fleurs blanches qui s'ouvrent plus largement que chez Cephalanthera damasonium[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se distingue par une tige densément feuillue avec 7 à 9 larges feuilles, de couleur vert foncé, pouvant atteindre 16 cm de long, souvent repliées ou courbées vers l'extérieur. L'inflorescence est dense et congestionnée, avec de grandes fleurs blanches qui s'ouvrent plus largement que chez Cephalanthera damasonium. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire du Caucase et d'Iran[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire du Caucase et d'Iran.
 </t>
         </is>
       </c>
